--- a/api/dataSurat.xlsx
+++ b/api/dataSurat.xlsx
@@ -487,22 +487,22 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>61ec2cb1da4c71a702f5088e</v>
+        <v>61fe4b789e7ab438ebc2dbb7</v>
       </c>
       <c r="B4" t="str">
-        <v>svd</v>
+        <v>asda</v>
       </c>
       <c r="C4" t="str">
-        <v>ae</v>
+        <v>sasd</v>
       </c>
       <c r="D4" t="str">
-        <v>csd3q</v>
+        <v>awdawd</v>
       </c>
       <c r="E4" t="str">
-        <v>dsxcs</v>
+        <v>13ew</v>
       </c>
       <c r="F4" t="str">
-        <v>2022-01-05</v>
+        <v>2022-02-24</v>
       </c>
       <c r="G4" t="str">
         <v>jne</v>
@@ -511,13 +511,13 @@
         <v>False</v>
       </c>
       <c r="I4" t="str">
-        <v>2022-01-22T16:11:29.345Z</v>
+        <v>2022-02-05T10:03:36.324Z</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4" t="str">
-        <v>61ec2cb1da4c71a702f5088e</v>
+        <v>61fe4b789e7ab438ebc2dbb7</v>
       </c>
     </row>
   </sheetData>

--- a/api/dataSurat.xlsx
+++ b/api/dataSurat.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,112 +417,77 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>61ebb53d879d195d3b6be1ee</v>
+        <v>62007f67bf9b39f8d3971f4c</v>
       </c>
       <c r="B2" t="str">
-        <v>22/WPJ/2021</v>
+        <v>ads</v>
       </c>
       <c r="C2" t="str">
-        <v>KPP Bruh Moment Bangsatbabi</v>
+        <v>ads</v>
       </c>
       <c r="D2" t="str">
-        <v>74333735235145</v>
+        <v>d3da</v>
       </c>
       <c r="E2" t="str">
-        <v>Soeharto  populisme tahun ngarep jadi presiden komunisme 1965</v>
+        <v>sd3ad</v>
       </c>
       <c r="F2" t="str">
-        <v>2022-01-13</v>
+        <v>2022-02-24</v>
       </c>
       <c r="G2" t="str">
-        <v>ptpos</v>
+        <v>jne</v>
       </c>
       <c r="H2" t="str">
         <v>False</v>
       </c>
       <c r="I2" t="str">
-        <v>2022-01-22T07:41:49.981Z</v>
+        <v>2022-02-07T02:09:43.729Z</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" t="str">
-        <v>61ebb53d879d195d3b6be1ee</v>
+        <v>62007f67bf9b39f8d3971f4c</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>61ec0adda5ee3df39fcb2755</v>
+        <v>62007f89bf9b39f8d3971f4f</v>
       </c>
       <c r="B3" t="str">
-        <v>s4fse</v>
+        <v>S-13513</v>
       </c>
       <c r="C3" t="str">
-        <v>afefa</v>
+        <v>eniaodnaio</v>
       </c>
       <c r="D3" t="str">
-        <v>dfaef</v>
+        <v>13514514</v>
       </c>
       <c r="E3" t="str">
-        <v>sfad</v>
+        <v>asda3fa</v>
       </c>
       <c r="F3" t="str">
-        <v>2022-01-13</v>
+        <v>2022-02-23</v>
       </c>
       <c r="G3" t="str">
-        <v>jnt</v>
+        <v>jne</v>
       </c>
       <c r="H3" t="str">
         <v>False</v>
       </c>
       <c r="I3" t="str">
-        <v>2022-01-22T13:47:09.762Z</v>
+        <v>2022-02-07T02:10:17.779Z</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3" t="str">
-        <v>61ec0adda5ee3df39fcb2755</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>61fe4b789e7ab438ebc2dbb7</v>
-      </c>
-      <c r="B4" t="str">
-        <v>asda</v>
-      </c>
-      <c r="C4" t="str">
-        <v>sasd</v>
-      </c>
-      <c r="D4" t="str">
-        <v>awdawd</v>
-      </c>
-      <c r="E4" t="str">
-        <v>13ew</v>
-      </c>
-      <c r="F4" t="str">
-        <v>2022-02-24</v>
-      </c>
-      <c r="G4" t="str">
-        <v>jne</v>
-      </c>
-      <c r="H4" t="str">
-        <v>False</v>
-      </c>
-      <c r="I4" t="str">
-        <v>2022-02-05T10:03:36.324Z</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="str">
-        <v>61fe4b789e7ab438ebc2dbb7</v>
+        <v>62007f89bf9b39f8d3971f4f</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>